--- a/Stock-Analysis/TROW/TROW.xlsx
+++ b/Stock-Analysis/TROW/TROW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Stock-Analysis/Stock Analysis/TROW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/TROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EB4195-057E-4AD5-AF62-EDC5DC856B46}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB509EA-C09F-4E0F-A816-8D75B0B2DC90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="IOV" sheetId="4" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Pivot</t>
-  </si>
-  <si>
     <t>YOC</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>[Analysis -2017-4] [Div = $2.28][Pivot 2.75% - 3.00%][Growth 10% - 15%]</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -8869,7 +8869,7 @@
   <dimension ref="B2:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8889,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -8979,43 +8979,43 @@
       </c>
       <c r="K4" s="5">
         <f>(J4*$J6)+J4</f>
-        <v>5.52</v>
+        <v>5.2799999999999994</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:T4" si="0">(K4*$J6)+K4</f>
-        <v>6.3479999999999999</v>
+        <v>5.8079999999999989</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>7.3002000000000002</v>
+        <v>6.3887999999999989</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="0"/>
-        <v>8.3952299999999997</v>
+        <v>7.0276799999999984</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>9.6545144999999994</v>
+        <v>7.7304479999999982</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" si="0"/>
-        <v>11.102691674999999</v>
+        <v>8.5034927999999983</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="0"/>
-        <v>12.768095426249999</v>
+        <v>9.3538420799999979</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="0"/>
-        <v>14.6833097401875</v>
+        <v>10.289226287999998</v>
       </c>
       <c r="S4" s="5">
         <f t="shared" si="0"/>
-        <v>16.885806201215626</v>
+        <v>11.318148916799998</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" si="0"/>
-        <v>19.41867713139797</v>
+        <v>12.449963808479998</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -9040,43 +9040,43 @@
       </c>
       <c r="K5" s="1">
         <f>K4/$J7</f>
-        <v>200.72727272727272</v>
+        <v>195.55555555555554</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:T5" si="1">L4/$J7</f>
-        <v>230.83636363636364</v>
+        <v>215.11111111111109</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>265.46181818181822</v>
+        <v>236.62222222222218</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>305.28109090909089</v>
+        <v>260.28444444444438</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>351.07325454545452</v>
+        <v>286.31288888888884</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>403.73424272727272</v>
+        <v>314.94417777777772</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>464.2943791363636</v>
+        <v>346.43859555555548</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>533.93853600681814</v>
+        <v>381.08245511111107</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>614.02931640784095</v>
+        <v>419.19070062222215</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>706.13371386901713</v>
+        <v>461.10977068444436</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>98</v>
       </c>
       <c r="J6" s="29">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -9115,10 +9115,10 @@
         <v>1.0844306738962046E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J7" s="2">
-        <v>2.75E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -9136,7 +9136,7 @@
         <v>1.0241657077100116E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="2">
         <f>J4/$J5</f>
@@ -9144,43 +9144,43 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>4.0888888888888884E-2</v>
+        <v>3.9111111111111103E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>4.7022222222222222E-2</v>
+        <v>4.3022222222222212E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>5.4075555555555557E-2</v>
+        <v>4.732444444444444E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>6.2186888888888889E-2</v>
+        <v>5.2056888888888875E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>7.1514922222222221E-2</v>
+        <v>5.7262577777777768E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>8.2242160555555555E-2</v>
+        <v>6.2988835555555539E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>9.4578484638888891E-2</v>
+        <v>6.928771911111109E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>0.10876525733472223</v>
+        <v>7.6216491022222208E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>0.12508004593493055</v>
+        <v>8.3838140124444432E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>0.14384205282517015</v>
+        <v>9.222195413688887E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -9228,7 +9228,7 @@
         <v>1.7354196301564723E-2</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -9451,7 +9451,7 @@
         <v>1.4428955734898507E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J16" s="2">
         <v>2.75E-2</v>
@@ -9472,7 +9472,7 @@
         <v>1.469435736677116E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="2">
         <f>J13/$J14</f>
@@ -9774,13 +9774,13 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">

--- a/Stock-Analysis/TROW/TROW.xlsx
+++ b/Stock-Analysis/TROW/TROW.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/TROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB509EA-C09F-4E0F-A816-8D75B0B2DC90}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03DD2605-0C73-4CE0-AFA0-6C492A82259A}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="IOV" sheetId="4" r:id="rId1"/>
+    <sheet name="Aesop" sheetId="4" r:id="rId1"/>
     <sheet name="Margins" sheetId="2" r:id="rId2"/>
     <sheet name="Growth" sheetId="9" r:id="rId3"/>
     <sheet name="Owner" sheetId="6" r:id="rId4"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,7 +8868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0F072-8EE5-43E6-9721-479E2A316DC3}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Stock-Analysis/TROW/TROW.xlsx
+++ b/Stock-Analysis/TROW/TROW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/TROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03DD2605-0C73-4CE0-AFA0-6C492A82259A}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="8_{BB403F6F-9775-4327-A0F3-7D39AFF35B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6BAE2D8-9AE7-400A-8FF0-65EFD861C031}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Aesop" sheetId="4" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -3293,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8FA1C0-125F-4E09-8416-0C3BFF7D9B7A}">
   <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B28:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,7 +5276,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,7 +5333,7 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>245.1</v>
       </c>
       <c r="D3" s="16" t="e">
@@ -5354,7 +5354,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G2)/G2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>655.654</v>
       </c>
       <c r="J3" s="16" t="e">
@@ -5373,7 +5373,7 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>310</v>
       </c>
       <c r="D4" s="16">
@@ -5394,7 +5394,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G3)/G3</f>
         <v>0.19148936170212769</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>844.91899999999998</v>
       </c>
       <c r="J4" s="16">
@@ -5413,7 +5413,7 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>382.4</v>
       </c>
       <c r="D5" s="16">
@@ -5434,7 +5434,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G4)/G4</f>
         <v>0.23214285714285723</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>872.85</v>
       </c>
       <c r="J5" s="16">
@@ -5453,7 +5453,7 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>439.3</v>
       </c>
       <c r="D6" s="16">
@@ -5474,7 +5474,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G5)/G5</f>
         <v>0.24637681159420269</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>1527.68</v>
       </c>
       <c r="J6" s="16">
@@ -5493,7 +5493,7 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>586.1</v>
       </c>
       <c r="D7" s="16">
@@ -5514,7 +5514,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G6)/G6</f>
         <v>0.83720930232558155</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>2505.5770000000002</v>
       </c>
       <c r="J7" s="16">
@@ -5533,7 +5533,7 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>755</v>
       </c>
       <c r="D8" s="16">
@@ -5554,7 +5554,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G7)/G7</f>
         <v>-0.11392405063291132</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>3716.0819999999999</v>
       </c>
       <c r="J8" s="16">
@@ -5573,7 +5573,7 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>886.14200000000005</v>
       </c>
       <c r="D9" s="16">
@@ -5594,7 +5594,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G8)/G8</f>
         <v>0.27142857142857124</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>4117.47</v>
       </c>
       <c r="J9" s="16">
@@ -5613,7 +5613,7 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>1036.3789999999999</v>
       </c>
       <c r="D10" s="16">
@@ -5634,7 +5634,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G9)/G9</f>
         <v>0.20786516853932588</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>4436.79</v>
       </c>
       <c r="J10" s="16">
@@ -5653,7 +5653,7 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>1154</v>
       </c>
       <c r="D11" s="16">
@@ -5674,7 +5674,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G10)/G10</f>
         <v>0.25581395348837221</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>5174.2719999999999</v>
       </c>
       <c r="J11" s="16">
@@ -5693,7 +5693,7 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>995</v>
       </c>
       <c r="D12" s="16">
@@ -5714,7 +5714,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G11)/G11</f>
         <v>0.12962962962962954</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>4276.1120000000001</v>
       </c>
       <c r="J12" s="16">
@@ -5733,7 +5733,7 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>924</v>
       </c>
       <c r="D13" s="16">
@@ -5754,7 +5754,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G12)/G12</f>
         <v>6.5573770491803338E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>3345.8510000000001</v>
       </c>
       <c r="J13" s="16">
@@ -5773,7 +5773,7 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>996</v>
       </c>
       <c r="D14" s="16">
@@ -5794,7 +5794,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G13)/G13</f>
         <v>7.6923076923076816E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>5924.3230000000003</v>
       </c>
       <c r="J14" s="16">
@@ -5813,7 +5813,7 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>1277.049</v>
       </c>
       <c r="D15" s="16">
@@ -5834,7 +5834,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G14)/G14</f>
         <v>0.14285714285714299</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>8061.5870000000004</v>
       </c>
       <c r="J15" s="16">
@@ -5853,7 +5853,7 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>1512.2</v>
       </c>
       <c r="D16" s="16">
@@ -5874,7 +5874,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G15)/G15</f>
         <v>0.21249999999999991</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>9486.1190000000006</v>
       </c>
       <c r="J16" s="16">
@@ -5893,7 +5893,7 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>1815</v>
       </c>
       <c r="D17" s="16">
@@ -5914,7 +5914,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G16)/G16</f>
         <v>0.21649484536082472</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>11597.299000000001</v>
       </c>
       <c r="J17" s="16">
@@ -5933,7 +5933,7 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>2228.3000000000002</v>
       </c>
       <c r="D18" s="16">
@@ -5954,7 +5954,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G17)/G17</f>
         <v>0.27118644067796616</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>16109.152</v>
       </c>
       <c r="J18" s="16">
@@ -5973,7 +5973,7 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>2116.3000000000002</v>
       </c>
       <c r="D19" s="16">
@@ -5994,7 +5994,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G18)/G18</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>9073.7739999999994</v>
       </c>
       <c r="J19" s="16">
@@ -6013,7 +6013,7 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>1867.4</v>
       </c>
       <c r="D20" s="16">
@@ -6034,7 +6034,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G19)/G19</f>
         <v>4.1666666666666706E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>13766.936</v>
       </c>
       <c r="J20" s="16">
@@ -6053,7 +6053,7 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>2367.1999999999998</v>
       </c>
       <c r="D21" s="16">
@@ -6074,7 +6074,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G20)/G20</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>16700.37</v>
       </c>
       <c r="J21" s="16">
@@ -6093,7 +6093,7 @@
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>2747.1</v>
       </c>
       <c r="D22" s="16">
@@ -6114,7 +6114,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G21)/G21</f>
         <v>0.14814814814814806</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>14423.84</v>
       </c>
       <c r="J22" s="16">
@@ -6133,7 +6133,7 @@
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>3022.5</v>
       </c>
       <c r="D23" s="16">
@@ -6154,7 +6154,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G22)/G22</f>
         <v>9.6774193548387177E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>16737.011999999999</v>
       </c>
       <c r="J23" s="16">
@@ -6173,7 +6173,7 @@
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>3484.2</v>
       </c>
       <c r="D24" s="16">
@@ -6194,7 +6194,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G23)/G23</f>
         <v>0.11764705882352934</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>21953.855</v>
       </c>
       <c r="J24" s="16">
@@ -6213,7 +6213,7 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>3982.1</v>
       </c>
       <c r="D25" s="16">
@@ -6234,7 +6234,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G24)/G24</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>22418.904999999999</v>
       </c>
       <c r="J25" s="16">
@@ -6253,7 +6253,7 @@
       <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>4200.6000000000004</v>
       </c>
       <c r="D26" s="16">
@@ -6274,7 +6274,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G25)/G25</f>
         <v>0.18181818181818185</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>17906.028999999999</v>
       </c>
       <c r="J26" s="16">
@@ -6293,7 +6293,7 @@
       <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>4284.8</v>
       </c>
       <c r="D27" s="16">
@@ -6314,7 +6314,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G26)/G26</f>
         <v>3.8461538461538491E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>18422.444</v>
       </c>
       <c r="J27" s="16">
@@ -6333,7 +6333,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>4854.8999999999996</v>
       </c>
       <c r="D28" s="16">
@@ -6354,7 +6354,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G27)/G27</f>
         <v>5.5555555555555393E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="5">
         <v>25719.496999999999</v>
       </c>
       <c r="J28" s="16">
@@ -6373,7 +6373,7 @@
       <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>5372.6</v>
       </c>
       <c r="D29" s="16">
@@ -6394,7 +6394,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G28)/G28</f>
         <v>0.22807017543859651</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <v>21978.53</v>
       </c>
       <c r="J29" s="16">
@@ -6413,7 +6413,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>5617.9</v>
       </c>
       <c r="D30" s="16">
@@ -6434,7 +6434,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G29)/G29</f>
         <v>8.5714285714285798E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <v>28658.473999999998</v>
       </c>
       <c r="J30" s="16">
@@ -6453,7 +6453,7 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>6206.7</v>
       </c>
       <c r="D31" s="16">
@@ -6474,7 +6474,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G30)/G30</f>
         <v>0.18421052631578949</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="5">
         <v>34511.620999999999</v>
       </c>
       <c r="J31" s="16">
@@ -6493,7 +6493,7 @@
       <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>7671.9</v>
       </c>
       <c r="D32" s="16">
@@ -6514,7 +6514,7 @@
         <f>(Table3[[#This Row],[DivPerShare]]-G31)/G31</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <v>45064.972000000002</v>
       </c>
       <c r="J32" s="16">
@@ -6552,7 +6552,7 @@
   <dimension ref="B2:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
